--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\SRPbVT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="10710"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>SRPbVT Separately Regulated Pollutants by Vehicle Type</t>
   </si>
@@ -194,12 +199,15 @@
   </si>
   <si>
     <t>motorbikes</t>
+  </si>
+  <si>
+    <t>(Boolean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -790,7 +798,9 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -798,6 +808,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>

--- a/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
+++ b/InputData/trans/SRPbVT/Separately Regulated Pollutants by Vehicle Type.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\SRPbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\SRPbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED0A6D9-94D5-41A2-B8C2-D520A3232E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="10710"/>
+    <workbookView xWindow="21090" yWindow="660" windowWidth="25935" windowHeight="22050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="SRPbVT" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>SRPbVT Separately Regulated Pollutants by Vehicle Type</t>
   </si>
@@ -183,31 +193,49 @@
     <t>SOx emissions would scale with fuel use.  Thus, limits on sulfur in hydrocarbon fuels are not considered to be</t>
   </si>
   <si>
-    <t>LDVs</t>
-  </si>
-  <si>
-    <t>HDVs</t>
-  </si>
-  <si>
-    <t>aircraft</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>ships</t>
-  </si>
-  <si>
-    <t>motorbikes</t>
-  </si>
-  <si>
     <t>(Boolean)</t>
+  </si>
+  <si>
+    <t>passenger LDVs</t>
+  </si>
+  <si>
+    <t>passenger HDVs</t>
+  </si>
+  <si>
+    <t>passenger aircraft</t>
+  </si>
+  <si>
+    <t>passenger rail</t>
+  </si>
+  <si>
+    <t>passenger ships</t>
+  </si>
+  <si>
+    <t>passenger motorbikes</t>
+  </si>
+  <si>
+    <t>freight LDVs</t>
+  </si>
+  <si>
+    <t>freight HDVs</t>
+  </si>
+  <si>
+    <t>freight aircraft</t>
+  </si>
+  <si>
+    <t>freight rail</t>
+  </si>
+  <si>
+    <t>freight ships</t>
+  </si>
+  <si>
+    <t>freight motorbikes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,24 +576,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="101.1328125" customWidth="1"/>
+    <col min="2" max="2" width="101.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,234 +599,234 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1"/>
+    <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -808,24 +834,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
@@ -864,9 +888,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -905,9 +929,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -946,9 +970,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -987,9 +1011,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1028,9 +1052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1069,9 +1093,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1107,6 +1131,324 @@
         <v>0</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:M8" si="0">C2</f>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:M13" si="1">B3</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
